--- a/classification/droptc/modern-bert/unfreeze/43782163/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/43782163/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9955769777297974</v>
+        <v>0.9965358972549438</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9963651895523071</v>
+        <v>0.9991115927696228</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9989050626754761</v>
+        <v>0.9960124492645264</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9528300166130066</v>
+        <v>0.9986441731452942</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9933005571365356</v>
+        <v>0.8444586396217346</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9992940425872803</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9884387850761414</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992344379425049</v>
+        <v>0.9864250421524048</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996349811553955</v>
+        <v>0.9889183640480042</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9990397095680237</v>
+        <v>0.998607337474823</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9931128621101379</v>
+        <v>0.9747017621994019</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999448835849762</v>
+        <v>0.9974505305290222</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995748400688171</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.993916928768158</v>
+        <v>0.9978204965591431</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9887535572052002</v>
+        <v>0.999482274055481</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9992344379425049</v>
+        <v>0.9995360374450684</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.993493378162384</v>
+        <v>0.9993864297866821</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995940327644348</v>
+        <v>0.9981662631034851</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9996013045310974</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996036887168884</v>
+        <v>0.9933633804321289</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.98639976978302</v>
+        <v>0.6691362261772156</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9965981841087341</v>
+        <v>0.9985186457633972</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990980625152588</v>
+        <v>0.9989463686943054</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9910118579864502</v>
+        <v>0.998424768447876</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.993916928768158</v>
+        <v>0.5581132173538208</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9994159936904907</v>
+        <v>0.9978321194648743</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9995678067207336</v>
+        <v>0.7744033336639404</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9979531764984131</v>
+        <v>0.6357892155647278</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9256746172904968</v>
+        <v>0.9983692765235901</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9994497895240784</v>
+        <v>0.9990035891532898</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996292591094971</v>
+        <v>0.9996315240859985</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9996829032897949</v>
+        <v>0.9991775155067444</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9995148181915283</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9995872378349304</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9992874264717102</v>
+        <v>0.9855321049690247</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9748284220695496</v>
+        <v>0.9979078769683838</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9993436932563782</v>
+        <v>0.9912574291229248</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9995429515838623</v>
+        <v>0.9991174340248108</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9992771744728088</v>
+        <v>0.9963854551315308</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9943135976791382</v>
+        <v>0.9987099170684814</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8956301212310791</v>
+        <v>0.9984478950500488</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9995543360710144</v>
+        <v>0.9861934781074524</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.913764476776123</v>
+        <v>0.9902952909469604</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9989282488822937</v>
+        <v>0.9994592070579529</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.999624490737915</v>
+        <v>0.6038272976875305</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.99913090467453</v>
+        <v>0.9929654598236084</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.999637246131897</v>
+        <v>0.9852553606033325</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9948008060455322</v>
+        <v>0.9979819059371948</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9982544779777527</v>
+        <v>0.9995827078819275</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9995959401130676</v>
+        <v>0.9669815897941589</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4545983970165253</v>
+        <v>0.9915298223495483</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.99933260679245</v>
+        <v>0.9294905662536621</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9932405948638916</v>
+        <v>0.9990922212600708</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9980733394622803</v>
+        <v>0.9994649291038513</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9994971752166748</v>
+        <v>0.999103844165802</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9861543774604797</v>
+        <v>0.9988707900047302</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9996223449707031</v>
+        <v>0.9979748129844666</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.993916928768158</v>
+        <v>0.9997097849845886</v>
       </c>
     </row>
     <row r="61">
@@ -2135,14 +2135,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8835223317146301</v>
+        <v>0.9613563418388367</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9992874264717102</v>
+        <v>0.9995501637458801</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9993840456008911</v>
+        <v>0.9992165565490723</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9979531764984131</v>
+        <v>0.9994869232177734</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9963027238845825</v>
+        <v>0.9915714263916016</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9911885261535645</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9996317625045776</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.939096987247467</v>
+        <v>0.9996547698974609</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9988501071929932</v>
+        <v>0.8039702773094177</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.999765932559967</v>
+        <v>0.998572826385498</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9993506073951721</v>
+        <v>0.998213529586792</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9983628392219543</v>
+        <v>0.9995842576026917</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9995823502540588</v>
+        <v>0.9845885634422302</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9588966369628906</v>
+        <v>0.9894094467163086</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9997009038925171</v>
+        <v>0.9145581126213074</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9996356964111328</v>
+        <v>0.9996694326400757</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9996222257614136</v>
+        <v>0.9979420304298401</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9995887875556946</v>
+        <v>0.9996228218078613</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9996417760848999</v>
+        <v>0.9983636736869812</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9994829893112183</v>
+        <v>0.9995427131652832</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996978044509888</v>
+        <v>0.9938381314277649</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.999377965927124</v>
+        <v>0.9993139505386353</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9946215152740479</v>
+        <v>0.9797532558441162</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9885368347167969</v>
+        <v>0.9812089204788208</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9949806332588196</v>
+        <v>0.9852553606033325</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9992702603340149</v>
+        <v>0.9979078769683838</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.995253324508667</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9991361498832703</v>
+        <v>0.9875655770301819</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9966272711753845</v>
+        <v>0.9965364933013916</v>
       </c>
     </row>
     <row r="90">
@@ -2947,14 +2947,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9368336200714111</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9997109770774841</v>
+        <v>0.9874343276023865</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9015403985977173</v>
+        <v>0.9996596574783325</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9990691542625427</v>
+        <v>0.9981347322463989</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9995817542076111</v>
+        <v>0.9848678708076477</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9992867112159729</v>
+        <v>0.9993178844451904</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9958173632621765</v>
+        <v>0.9985718727111816</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9989736080169678</v>
+        <v>0.5261160135269165</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9994497895240784</v>
+        <v>0.9990739822387695</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9993190765380859</v>
+        <v>0.9838907122612</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9996702671051025</v>
+        <v>0.4673819243907928</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9630982875823975</v>
+        <v>0.7691895365715027</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9996408224105835</v>
+        <v>0.9995757937431335</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8331799507141113</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9991874098777771</v>
+        <v>0.9985450506210327</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9992634654045105</v>
+        <v>0.4112520813941956</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9994720816612244</v>
+        <v>0.994706928730011</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9994741082191467</v>
+        <v>0.9993220567703247</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9944227337837219</v>
+        <v>0.9988215565681458</v>
       </c>
     </row>
     <row r="109">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9948008060455322</v>
+        <v>0.9870325326919556</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7778412103652954</v>
+        <v>0.9986275434494019</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9992842078208923</v>
+        <v>0.9991598129272461</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.995857298374176</v>
+        <v>0.9851558804512024</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9433134198188782</v>
+        <v>0.9981421232223511</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9862244129180908</v>
+        <v>0.9992042183876038</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9810898900032043</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9995177984237671</v>
+        <v>0.9996310472488403</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9995453953742981</v>
+        <v>0.9993415474891663</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9830759763717651</v>
+        <v>0.9566454887390137</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9939253926277161</v>
+        <v>0.963301420211792</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9992921352386475</v>
+        <v>0.9669815897941589</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9997456669807434</v>
+        <v>0.9994909763336182</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9947724938392639</v>
+        <v>0.9900985360145569</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.999276340007782</v>
+        <v>0.9586053490638733</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9995371103286743</v>
+        <v>0.9496387243270874</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9947333335876465</v>
+        <v>0.9438844919204712</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7796856164932251</v>
+        <v>0.9996315240859985</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9966272711753845</v>
+        <v>0.9985837936401367</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9995508790016174</v>
+        <v>0.9632638096809387</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9938886165618896</v>
+        <v>0.8249746561050415</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9951146841049194</v>
+        <v>0.9718828797340393</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9905937314033508</v>
+        <v>0.9993938207626343</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9995984435081482</v>
+        <v>0.9995900988578796</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9995971322059631</v>
+        <v>0.9613422155380249</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.998822033405304</v>
+        <v>0.997855007648468</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9996315240859985</v>
+        <v>0.999131977558136</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9905937314033508</v>
+        <v>0.9993463158607483</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4468122124671936</v>
+        <v>0.9832111597061157</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9991089701652527</v>
+        <v>0.9950719475746155</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9995958209037781</v>
+        <v>0.9996726512908936</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9898498058319092</v>
+        <v>0.960412323474884</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9997490048408508</v>
+        <v>0.9997579455375671</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9994035959243774</v>
+        <v>0.8753353953361511</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8731050491333008</v>
+        <v>0.9993027448654175</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9995935559272766</v>
+        <v>0.3170691132545471</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9957312941551208</v>
+        <v>0.9848678708076477</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9719952940940857</v>
+        <v>0.9934438467025757</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9959039092063904</v>
+        <v>0.9992792010307312</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9592939019203186</v>
+        <v>0.999473512172699</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9991911053657532</v>
+        <v>0.9995156526565552</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9943373799324036</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9991986155509949</v>
+        <v>0.9991979002952576</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9997028708457947</v>
+        <v>0.7850878834724426</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996175765991211</v>
+        <v>0.9613563418388367</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9358245730400085</v>
+        <v>0.99967360496521</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9385640621185303</v>
+        <v>0.9990034699440002</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9536022543907166</v>
+        <v>0.9653774499893188</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999600350856781</v>
+        <v>0.9997000694274902</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9707581996917725</v>
+        <v>0.9994885921478271</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9952334761619568</v>
+        <v>0.9294905662536621</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9995825886726379</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9993783235549927</v>
+        <v>0.9364405274391174</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.999437153339386</v>
+        <v>0.9993463158607483</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9991557598114014</v>
+        <v>0.999485969543457</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9996821880340576</v>
+        <v>0.999106228351593</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9949262142181396</v>
+        <v>0.9995787739753723</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.999372661113739</v>
+        <v>0.8664767742156982</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996374845504761</v>
+        <v>0.9422538280487061</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9842867851257324</v>
+        <v>0.9990034699440002</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9992035031318665</v>
+        <v>0.7586761713027954</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9887535572052002</v>
+        <v>0.7429695129394531</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9971368312835693</v>
+        <v>0.9993005990982056</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9992895126342773</v>
+        <v>0.9991413354873657</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4403190910816193</v>
+        <v>0.9995017051696777</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9995548129081726</v>
+        <v>0.9991599321365356</v>
       </c>
     </row>
     <row r="175">
@@ -5327,14 +5327,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9987425208091736</v>
+        <v>0.9170489311218262</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9769653081893921</v>
+        <v>0.9861934781074524</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9996412992477417</v>
+        <v>0.9851558804512024</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9995940327644348</v>
+        <v>0.9915400147438049</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9992702603340149</v>
+        <v>0.9890257716178894</v>
       </c>
     </row>
     <row r="180">
@@ -5467,14 +5467,14 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9959059953689575</v>
+        <v>0.7508979439735413</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9992914199829102</v>
+        <v>0.9986253976821899</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9993045330047607</v>
+        <v>0.9680624008178711</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9950569868087769</v>
+        <v>0.9978321194648743</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.995857298374176</v>
+        <v>0.9992596507072449</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.999713122844696</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9865180850028992</v>
+        <v>0.9948833584785461</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9993897676467896</v>
+        <v>0.9995427131652832</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9995668530464172</v>
+        <v>0.9861934781074524</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.995857298374176</v>
+        <v>0.9994350075721741</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9917160868644714</v>
+        <v>0.5919118523597717</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9996932744979858</v>
+        <v>0.99956876039505</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9967455863952637</v>
+        <v>0.9779468178749084</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9995224475860596</v>
+        <v>0.9880956411361694</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9966272711753845</v>
+        <v>0.9994034767150879</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9992952346801758</v>
+        <v>0.9996463060379028</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9996675252914429</v>
+        <v>0.9962394237518311</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9992625117301941</v>
+        <v>0.9991207718849182</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9993199110031128</v>
+        <v>0.5448358654975891</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4657717645168304</v>
+        <v>0.9804630875587463</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9994388222694397</v>
+        <v>0.9890689253807068</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8186132907867432</v>
+        <v>0.9669815897941589</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9995378255844116</v>
+        <v>0.99888676404953</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.996698260307312</v>
+        <v>0.9990929365158081</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9842867851257324</v>
+        <v>0.9989363551139832</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9995861649513245</v>
+        <v>0.9992515444755554</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9932273030281067</v>
+        <v>0.9852553606033325</v>
       </c>
     </row>
     <row r="207">
@@ -6223,14 +6223,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9313706755638123</v>
+        <v>0.9828632473945618</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9997166991233826</v>
+        <v>0.9989463686943054</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9995678067207336</v>
+        <v>0.8689346313476562</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9974554181098938</v>
+        <v>0.9753178954124451</v>
       </c>
     </row>
   </sheetData>
